--- a/biology/Histoire de la zoologie et de la botanique/Stefano_Lorenzini/Stefano_Lorenzini.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Stefano_Lorenzini/Stefano_Lorenzini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stefano Lorenzini né à Florence vers 1652 est un médecin et ichtyologue italien. Il est connu comme le découvreur de certains organes des requins, appelés aujourd'hui ampoules de Lorenzini, identifiés comme un système d'électroperception[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stefano Lorenzini né à Florence vers 1652 est un médecin et ichtyologue italien. Il est connu comme le découvreur de certains organes des requins, appelés aujourd'hui ampoules de Lorenzini, identifiés comme un système d'électroperception.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Frère du mathématicien Lorenzo Lorenzini, il étudie la médecine à Pise et la chirurgie à l'hôpital Fiorentino de S. Maria Nuova. Il eut pour maîtres Francesco Redi (1626-1697), Nicolas Sténon (1638-1686), John Fynch et d'autres spécialistes importants. Cosme III de Médicis le fit enfermer. Ses observations anatomiques précises et novatrices sur les torpilles, publiées à Florence, en 1678 l'ont rendu célèbre.
 </t>
